--- a/Source/Doc/RomWBW Disk Layouts.xlsx
+++ b/Source/Doc/RomWBW Disk Layouts.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayne\Projects\RBC\Build\RomWBW\Source\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28CB86-016D-4DCC-A63B-15317788AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE48AE-2F95-4474-9124-89EE08B0CBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="850" windowWidth="31900" windowHeight="17210" activeTab="1" xr2:uid="{ED9FFC77-522D-4C83-8053-1737069FCED2}"/>
+    <workbookView xWindow="230" yWindow="1350" windowWidth="29680" windowHeight="17210" xr2:uid="{ED9FFC77-522D-4C83-8053-1737069FCED2}"/>
   </bookViews>
   <sheets>
-    <sheet name="hd512" sheetId="2" r:id="rId1"/>
-    <sheet name="hd1k" sheetId="1" r:id="rId2"/>
+    <sheet name="hd1k" sheetId="1" r:id="rId1"/>
+    <sheet name="hd512" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Start</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>(8,320 KB)</t>
+  </si>
+  <si>
+    <t>(1 MB)</t>
+  </si>
+  <si>
+    <t>(512 MB)</t>
+  </si>
+  <si>
+    <t>(384 MB)</t>
+  </si>
+  <si>
+    <t>MBR is first sector of Prefix</t>
+  </si>
+  <si>
+    <t>(520 MB)</t>
   </si>
 </sst>
 </file>
@@ -300,19 +315,10 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,6 +331,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,11 +673,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB068F70-EA20-469B-9245-A36674258025}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="15.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="15.6328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>512</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2044</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
+        <f>B11/512/E6/E5</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <f>16*1024</f>
+        <v>16384</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B7*B6</f>
+        <v>8372224</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+B10</f>
+        <v>8388608</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <f>1*1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B15*B11</f>
+        <v>536870912</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f>384*1024*1024</f>
+        <v>402653184</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B14</f>
+        <v>1048576</v>
+      </c>
+      <c r="D21" s="5">
+        <f>B21/512</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>C21/512</f>
+        <v>2048</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f>DEC2HEX(B21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" ref="G21:G29" si="0">DEC2HEX(C21)</f>
+        <v>100000</v>
+      </c>
+      <c r="H21" s="11">
+        <f>B21/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" ref="I21:I29" si="1">C21/1024/1024</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>512</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:D30" si="2">B22/512</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:E29" si="3">C22/512</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" ref="F22:F30" si="4">DEC2HEX(B22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5">
+        <f>B22+C22</f>
+        <v>512</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C21-C22</f>
+        <v>1048064</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>2047</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>FFE00</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" ref="H23:H30" si="5">B23/1024/1024</f>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.99951171875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <f>B21+C21</f>
+        <v>1048576</v>
+      </c>
+      <c r="C24" s="5">
+        <f>B16</f>
+        <v>536870912</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
+        <v>1048576</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>DEC2HEX(B24)</f>
+        <v>100000</v>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24</f>
+        <v>1048576</v>
+      </c>
+      <c r="C25" s="5">
+        <f>$B$11</f>
+        <v>8388608</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B25+C25</f>
+        <v>9437184</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:C28" si="6">$B$11</f>
+        <v>8388608</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>18432</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>900000</v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B26+C26</f>
+        <v>17825792</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="6"/>
+        <v>8388608</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>34816</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1100000</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B24+((B15-1) * C28)</f>
+        <v>529530880</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="6"/>
+        <v>8388608</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>1034240</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1F900000</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="5"/>
+        <v>505</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5">
+        <f>B14+B16</f>
+        <v>537919488</v>
+      </c>
+      <c r="C29" s="5">
+        <f>B17</f>
+        <v>402653184</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>1050624</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="3"/>
+        <v>786432</v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>20100000</v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="5"/>
+        <v>513</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5">
+        <f>B29+C29</f>
+        <v>940572672</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5">
+        <f t="shared" si="2"/>
+        <v>1837056</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>38100000</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="11">
+        <f t="shared" si="5"/>
+        <v>897</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B0A1B1-B50E-4932-9259-06C639623F3C}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,670 +1277,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>512</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>16</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4096</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>16</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2048</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>B11/512/E6/E5</f>
         <v>65</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>512</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>128*1024</f>
         <v>131072</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>B7*B6</f>
         <v>8388608</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>B9+B10</f>
         <v>8519680</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>64</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>B15*B11</f>
         <v>545259520</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>384*1024*1024</f>
         <v>402653184</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <f>B14</f>
         <v>0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>B21/512</f>
         <v>0</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>C21/512</f>
         <v>0</v>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="8" t="str">
         <f>DEC2HEX(B21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="8" t="str">
         <f t="shared" ref="G21:G29" si="0">DEC2HEX(C21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" ref="H21:H22" si="1">B21/1024/1024</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" ref="I21:I22" si="2">C21/1024/1024</f>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21" si="1">B21/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" ref="I21" si="2">C21/1024/1024</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
         <v>512</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" ref="D22:E30" si="3">B22/512</f>
         <v>0</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="8" t="str">
         <f t="shared" ref="F22:F30" si="4">DEC2HEX(B22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>B21+C21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f>B16</f>
         <v>545259520</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>1064960</v>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>20800000</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <f t="shared" ref="H24:H30" si="5">B24/1024/1024</f>
         <v>0</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <f t="shared" ref="I24:I29" si="6">C24/1024/1024</f>
         <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>$B$11</f>
         <v>8519680</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>16640</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>B25+C25</f>
         <v>8519680</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f t="shared" ref="C26:C28" si="7">$B$11</f>
         <v>8519680</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" si="3"/>
         <v>16640</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>16640</v>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="8" t="str">
         <f t="shared" si="4"/>
         <v>820000</v>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="9">
         <f t="shared" si="5"/>
         <v>8.125</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>B26+C26</f>
         <v>17039360</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f t="shared" si="7"/>
         <v>8519680</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f t="shared" si="3"/>
         <v>33280</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f t="shared" si="3"/>
         <v>16640</v>
       </c>
-      <c r="F27" s="11" t="str">
+      <c r="F27" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1040000</v>
       </c>
-      <c r="G27" s="11" t="str">
+      <c r="G27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="9">
         <f t="shared" si="5"/>
         <v>16.25</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="9">
         <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>B24+((B15-1) * C28)</f>
         <v>536739840</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f t="shared" si="7"/>
         <v>8519680</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f t="shared" si="3"/>
         <v>1048320</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
         <v>16640</v>
       </c>
-      <c r="F28" s="11" t="str">
+      <c r="F28" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1FFE0000</v>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <f t="shared" si="5"/>
         <v>511.875</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>B14+B16</f>
         <v>545259520</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>B17</f>
         <v>402653184</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f t="shared" si="3"/>
         <v>1064960</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>786432</v>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="8" t="str">
         <f t="shared" si="4"/>
         <v>20800000</v>
       </c>
-      <c r="G29" s="11" t="str">
+      <c r="G29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="9">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <f t="shared" si="6"/>
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>B29+C29</f>
         <v>947912704</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5">
         <f t="shared" si="3"/>
         <v>1851392</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11" t="str">
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="str">
         <f t="shared" si="4"/>
         <v>38800000</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12">
+      <c r="G30" s="8"/>
+      <c r="H30" s="9">
         <f t="shared" si="5"/>
         <v>904</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1349,581 +1957,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB068F70-EA20-469B-9245-A36674258025}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="15.6328125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="15.6328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6">
-        <v>512</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4096</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2044</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4">
-        <f>B11/512/E6/E5</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6">
-        <f>16*1024</f>
-        <v>16384</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6">
-        <f>B7*B6</f>
-        <v>8372224</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B9+B10</f>
-        <v>8388608</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6">
-        <f>1*1024*1024</f>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6">
-        <f>B15*B11</f>
-        <v>536870912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <f>384*1024*1024</f>
-        <v>402653184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <f>B14</f>
-        <v>1048576</v>
-      </c>
-      <c r="D21" s="6">
-        <f>B21/512</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <f>C21/512</f>
-        <v>2048</v>
-      </c>
-      <c r="F21" s="11" t="str">
-        <f>DEC2HEX(B21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="str">
-        <f t="shared" ref="G21:G29" si="0">DEC2HEX(C21)</f>
-        <v>100000</v>
-      </c>
-      <c r="H21" s="14">
-        <f>B21/1024/1024</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" ref="I21:I29" si="1">C21/1024/1024</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>512</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" ref="D22:D30" si="2">B22/512</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" ref="E22:E29" si="3">C22/512</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="str">
-        <f t="shared" ref="F22:F30" si="4">DEC2HEX(B22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6">
-        <f>B22+C22</f>
-        <v>512</v>
-      </c>
-      <c r="C23" s="6">
-        <f>C21-C22</f>
-        <v>1048064</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="3"/>
-        <v>2047</v>
-      </c>
-      <c r="F23" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="G23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>FFE00</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" ref="H22:H30" si="5">B23/1024/1024</f>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99951171875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6">
-        <f>B21+C21</f>
-        <v>1048576</v>
-      </c>
-      <c r="C24" s="6">
-        <f>B16</f>
-        <v>536870912</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="3"/>
-        <v>1048576</v>
-      </c>
-      <c r="F24" s="11" t="str">
-        <f>DEC2HEX(B24)</f>
-        <v>100000</v>
-      </c>
-      <c r="G24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>20000000</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6">
-        <f>B24</f>
-        <v>1048576</v>
-      </c>
-      <c r="C25" s="6">
-        <f>$B$11</f>
-        <v>8388608</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="3"/>
-        <v>16384</v>
-      </c>
-      <c r="F25" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-      <c r="G25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6">
-        <f>B25+C25</f>
-        <v>9437184</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" ref="C26:C28" si="6">$B$11</f>
-        <v>8388608</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="2"/>
-        <v>18432</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="3"/>
-        <v>16384</v>
-      </c>
-      <c r="F26" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>900000</v>
-      </c>
-      <c r="G26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="6">
-        <f>B26+C26</f>
-        <v>17825792</v>
-      </c>
-      <c r="C27" s="6">
-        <f t="shared" si="6"/>
-        <v>8388608</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="2"/>
-        <v>34816</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="3"/>
-        <v>16384</v>
-      </c>
-      <c r="F27" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>1100000</v>
-      </c>
-      <c r="G27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="6">
-        <f>B24+((B15-1) * C28)</f>
-        <v>529530880</v>
-      </c>
-      <c r="C28" s="6">
-        <f t="shared" si="6"/>
-        <v>8388608</v>
-      </c>
-      <c r="D28" s="6">
-        <f t="shared" si="2"/>
-        <v>1034240</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="3"/>
-        <v>16384</v>
-      </c>
-      <c r="F28" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>1F900000</v>
-      </c>
-      <c r="G28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="H28" s="14">
-        <f t="shared" si="5"/>
-        <v>505</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6">
-        <f>B14+B16</f>
-        <v>537919488</v>
-      </c>
-      <c r="C29" s="6">
-        <f>B17</f>
-        <v>402653184</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" si="2"/>
-        <v>1050624</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="3"/>
-        <v>786432</v>
-      </c>
-      <c r="F29" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>20100000</v>
-      </c>
-      <c r="G29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>18000000</v>
-      </c>
-      <c r="H29" s="14">
-        <f t="shared" si="5"/>
-        <v>513</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6">
-        <f>B29+C29</f>
-        <v>940572672</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <f t="shared" si="2"/>
-        <v>1837056</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>38100000</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="14">
-        <f t="shared" si="5"/>
-        <v>897</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>